--- a/biology/Neurosciences/Corne_postérieure/Corne_postérieure.xlsx
+++ b/biology/Neurosciences/Corne_postérieure/Corne_postérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corne_post%C3%A9rieure</t>
+          <t>Corne_postérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La corne postérieure (posterior cornu selon la nomenclature latine), encore appelée colonne postérieure ou corne dorsale est la partie postérieure de la substance grise de la moelle épinière.
 Cette structure paire contient principalement les corps cellulaires des seconds neurones sensibles (ou deutoneurones) qui assurent la réception des informations extéroceptives (sensations au niveau du derme cutané entre autres), proprioceptives (des muscles squelettiques par exemple) et intéroceptives (viscères). Sur une coupe transversale de la moelle, les cornes postérieures ont une forme effilée. La partie antérieure est appelée la base, la partie intermédiaire est le col et la partie postérieure la tête, mais il n'y a pas de nette séparation entre les trois. Elles sont séparées de la surface de la moelle par une épaisseur de substance blanche composée des faisceaux constitutifs des racines postérieures.
